--- a/data/trans_orig/Viv_Temp_insuf-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B6F2FA-C427-49FE-9A5F-2EB23D600A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCA594D-B466-4338-B78A-FD4FDC4D7B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F6E3041-C726-49A4-B9DC-5841E33944E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDDC2F00-FE4A-406A-BBFE-E623F3A9EAA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
   <si>
     <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -368,481 +368,487 @@
     <t>12,33%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>69,38%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0103E4-C2DE-4E10-BDB0-2938242B62F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A8F07B-5090-4015-8C90-147728F790E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2785,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBC6E6-7B14-4783-84CB-BEB4876C558C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACB7F73-6225-4AFD-90AF-65839B760FD2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8721AE6-D6C9-4735-918B-3507473C84C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29587A5B-6DDC-4432-ADA1-68D0957565C1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5829,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32D822-5737-437D-8B7E-0D9BAB559D15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B328CC78-8686-4431-AB4F-C5176B5B98FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6731,10 +6737,10 @@
         <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -6743,13 +6749,13 @@
         <v>35327</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -6758,13 +6764,13 @@
         <v>79861</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6785,13 @@
         <v>231798</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>398</v>
@@ -6794,13 +6800,13 @@
         <v>240295</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>698</v>
@@ -6809,13 +6815,13 @@
         <v>472093</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6889,13 @@
         <v>202424</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>413</v>
@@ -6898,13 +6904,13 @@
         <v>287507</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>612</v>
@@ -6913,13 +6919,13 @@
         <v>489931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6940,13 @@
         <v>423933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>544</v>
@@ -6949,13 +6955,13 @@
         <v>514525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>941</v>
@@ -6964,13 +6970,13 @@
         <v>938459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7044,13 @@
         <v>695486</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H25" s="7">
         <v>939</v>
@@ -7053,13 +7059,13 @@
         <v>767233</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M25" s="7">
         <v>1601</v>
@@ -7068,13 +7074,13 @@
         <v>1462719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7095,13 @@
         <v>163942</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>123</v>
@@ -7104,13 +7110,13 @@
         <v>101201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -7119,13 +7125,13 @@
         <v>265143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7199,13 @@
         <v>1304410</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H28" s="7">
         <v>2068</v>
@@ -7208,13 +7214,13 @@
         <v>1509097</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>3389</v>
@@ -7223,13 +7229,13 @@
         <v>2813507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7250,13 @@
         <v>2078530</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H29" s="7">
         <v>3295</v>
@@ -7259,13 +7265,13 @@
         <v>2324154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M29" s="7">
         <v>5346</v>
@@ -7274,13 +7280,13 @@
         <v>4402684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Viv_Temp_insuf-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCA594D-B466-4338-B78A-FD4FDC4D7B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{039B9C35-3E12-4E81-8A56-356F98D15D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDDC2F00-FE4A-406A-BBFE-E623F3A9EAA0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5015AD-BDEA-4BF9-A1D3-035E04B6C5A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -305,7 +305,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A8F07B-5090-4015-8C90-147728F790E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D99034-BDBA-458D-8E28-EAEFABAC8DD2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2672,7 +2672,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2702,7 +2702,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2723,7 +2723,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2753,7 +2753,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2791,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACB7F73-6225-4AFD-90AF-65839B760FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A35FDD-6D15-4526-BA20-0FB32C8C5C79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29587A5B-6DDC-4432-ADA1-68D0957565C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE931A-9271-44E0-89B2-46C288610AAC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B328CC78-8686-4431-AB4F-C5176B5B98FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7363FA-995E-4FF6-803C-3EA901C42DC3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Viv_Temp_insuf-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039B9C35-3E12-4E81-8A56-356F98D15D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAB1A9E-24D6-4432-8C41-0B413D1866F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5015AD-BDEA-4BF9-A1D3-035E04B6C5A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6126A3E-D4B3-487B-9D8A-3AC2187B09C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
-  <si>
-    <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="268">
+  <si>
+    <t>Población con temperatura insuficiente en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -251,7 +251,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -305,7 +305,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -362,493 +362,487 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2023 (Tasa respuesta: 99,91%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>69,38%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>80,37%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>20,31%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>83,88%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>79,69%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D99034-BDBA-458D-8E28-EAEFABAC8DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921CE555-8223-433E-BEE1-EFE16B3C7513}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2672,7 +2666,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2702,7 +2696,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2723,7 +2717,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2753,7 +2747,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2791,7 +2785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A35FDD-6D15-4526-BA20-0FB32C8C5C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C561C54-0C28-4BF9-8B92-D25D884AE551}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE931A-9271-44E0-89B2-46C288610AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E3C94B-AC93-453A-B417-8ACBEAAE56BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7363FA-995E-4FF6-803C-3EA901C42DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747FCE4-B781-4B49-A575-0D627965BB21}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6737,10 +6731,10 @@
         <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -6749,13 +6743,13 @@
         <v>35327</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -6764,13 +6758,13 @@
         <v>79861</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6779,13 @@
         <v>231798</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>398</v>
@@ -6800,13 +6794,13 @@
         <v>240295</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>698</v>
@@ -6815,13 +6809,13 @@
         <v>472093</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6883,13 @@
         <v>202424</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>413</v>
@@ -6904,13 +6898,13 @@
         <v>287507</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>612</v>
@@ -6919,13 +6913,13 @@
         <v>489931</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6934,13 @@
         <v>423933</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>544</v>
@@ -6955,13 +6949,13 @@
         <v>514525</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>941</v>
@@ -6970,13 +6964,13 @@
         <v>938459</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7038,13 @@
         <v>695486</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H25" s="7">
         <v>939</v>
@@ -7059,13 +7053,13 @@
         <v>767233</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M25" s="7">
         <v>1601</v>
@@ -7074,13 +7068,13 @@
         <v>1462719</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7089,13 @@
         <v>163942</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>123</v>
@@ -7110,13 +7104,13 @@
         <v>101201</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -7125,13 +7119,13 @@
         <v>265143</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7193,13 @@
         <v>1304410</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H28" s="7">
         <v>2068</v>
@@ -7214,13 +7208,13 @@
         <v>1509097</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>3389</v>
@@ -7229,13 +7223,13 @@
         <v>2813507</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7244,13 @@
         <v>2078530</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H29" s="7">
         <v>3295</v>
@@ -7265,13 +7259,13 @@
         <v>2324154</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M29" s="7">
         <v>5346</v>
@@ -7280,13 +7274,13 @@
         <v>4402684</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
